--- a/out/results_2024-06-25.xlsx
+++ b/out/results_2024-06-25.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G613"/>
+  <dimension ref="A1:G744"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18198,6 +18198,3805 @@
         <v>3864861</v>
       </c>
     </row>
+    <row r="614">
+      <c r="A614" t="n">
+        <v>1</v>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>3-2-2</t>
+        </is>
+      </c>
+      <c r="C614" t="inlineStr">
+        <is>
+          <t>NSC_M</t>
+        </is>
+      </c>
+      <c r="D614" t="n">
+        <v>0</v>
+      </c>
+      <c r="E614" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F614" t="n">
+        <v>138</v>
+      </c>
+      <c r="G614" t="n">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="n">
+        <v>2</v>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>5-3-2</t>
+        </is>
+      </c>
+      <c r="C615" t="inlineStr">
+        <is>
+          <t>NSC_M</t>
+        </is>
+      </c>
+      <c r="D615" t="n">
+        <v>0</v>
+      </c>
+      <c r="E615" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F615" t="n">
+        <v>870</v>
+      </c>
+      <c r="G615" t="n">
+        <v>3312</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="n">
+        <v>3</v>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>4-3-3</t>
+        </is>
+      </c>
+      <c r="C616" t="inlineStr">
+        <is>
+          <t>NSC_M</t>
+        </is>
+      </c>
+      <c r="D616" t="n">
+        <v>0</v>
+      </c>
+      <c r="E616" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F616" t="n">
+        <v>846</v>
+      </c>
+      <c r="G616" t="n">
+        <v>3108</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="n">
+        <v>4</v>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>7-4-2</t>
+        </is>
+      </c>
+      <c r="C617" t="inlineStr">
+        <is>
+          <t>NSC_M</t>
+        </is>
+      </c>
+      <c r="D617" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E617" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F617" t="n">
+        <v>2996</v>
+      </c>
+      <c r="G617" t="n">
+        <v>15067</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="n">
+        <v>5</v>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>9-5-2</t>
+        </is>
+      </c>
+      <c r="C618" t="inlineStr">
+        <is>
+          <t>NSC_M</t>
+        </is>
+      </c>
+      <c r="D618" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="E618" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F618" t="n">
+        <v>7650</v>
+      </c>
+      <c r="G618" t="n">
+        <v>47587</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="n">
+        <v>6</v>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>5-4-4</t>
+        </is>
+      </c>
+      <c r="C619" t="inlineStr">
+        <is>
+          <t>NSC_M</t>
+        </is>
+      </c>
+      <c r="D619" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E619" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F619" t="n">
+        <v>3160</v>
+      </c>
+      <c r="G619" t="n">
+        <v>14343</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="n">
+        <v>7</v>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>11-6-2</t>
+        </is>
+      </c>
+      <c r="C620" t="inlineStr">
+        <is>
+          <t>NSC_M</t>
+        </is>
+      </c>
+      <c r="D620" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="E620" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F620" t="n">
+        <v>16302</v>
+      </c>
+      <c r="G620" t="n">
+        <v>120576</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="n">
+        <v>8</v>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>7-6-3</t>
+        </is>
+      </c>
+      <c r="C621" t="inlineStr">
+        <is>
+          <t>NSC_M</t>
+        </is>
+      </c>
+      <c r="D621" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E621" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F621" t="n">
+        <v>10143</v>
+      </c>
+      <c r="G621" t="n">
+        <v>56583</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="n">
+        <v>9</v>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>13-7-2</t>
+        </is>
+      </c>
+      <c r="C622" t="inlineStr">
+        <is>
+          <t>NSC_M</t>
+        </is>
+      </c>
+      <c r="D622" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="E622" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F622" t="n">
+        <v>30758</v>
+      </c>
+      <c r="G622" t="n">
+        <v>263386</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="n">
+        <v>1</v>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>3-2-2</t>
+        </is>
+      </c>
+      <c r="C623" t="inlineStr">
+        <is>
+          <t>nsc_update</t>
+        </is>
+      </c>
+      <c r="D623" t="n">
+        <v>0</v>
+      </c>
+      <c r="E623" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F623" t="n">
+        <v>93</v>
+      </c>
+      <c r="G623" t="n">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="n">
+        <v>2</v>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>5-3-2</t>
+        </is>
+      </c>
+      <c r="C624" t="inlineStr">
+        <is>
+          <t>nsc_update</t>
+        </is>
+      </c>
+      <c r="D624" t="n">
+        <v>0</v>
+      </c>
+      <c r="E624" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F624" t="n">
+        <v>555</v>
+      </c>
+      <c r="G624" t="n">
+        <v>3102</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="n">
+        <v>3</v>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>4-3-3</t>
+        </is>
+      </c>
+      <c r="C625" t="inlineStr">
+        <is>
+          <t>nsc_update</t>
+        </is>
+      </c>
+      <c r="D625" t="n">
+        <v>0</v>
+      </c>
+      <c r="E625" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F625" t="n">
+        <v>582</v>
+      </c>
+      <c r="G625" t="n">
+        <v>2844</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="n">
+        <v>4</v>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>7-4-2</t>
+        </is>
+      </c>
+      <c r="C626" t="inlineStr">
+        <is>
+          <t>nsc_update</t>
+        </is>
+      </c>
+      <c r="D626" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E626" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F626" t="n">
+        <v>1862</v>
+      </c>
+      <c r="G626" t="n">
+        <v>14311</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="n">
+        <v>5</v>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>9-5-2</t>
+        </is>
+      </c>
+      <c r="C627" t="inlineStr">
+        <is>
+          <t>nsc_update</t>
+        </is>
+      </c>
+      <c r="D627" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E627" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F627" t="n">
+        <v>4680</v>
+      </c>
+      <c r="G627" t="n">
+        <v>45607</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="n">
+        <v>6</v>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>5-4-4</t>
+        </is>
+      </c>
+      <c r="C628" t="inlineStr">
+        <is>
+          <t>nsc_update</t>
+        </is>
+      </c>
+      <c r="D628" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="E628" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F628" t="n">
+        <v>2210</v>
+      </c>
+      <c r="G628" t="n">
+        <v>13393</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="n">
+        <v>7</v>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>11-6-2</t>
+        </is>
+      </c>
+      <c r="C629" t="inlineStr">
+        <is>
+          <t>nsc_update</t>
+        </is>
+      </c>
+      <c r="D629" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E629" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F629" t="n">
+        <v>9867</v>
+      </c>
+      <c r="G629" t="n">
+        <v>116286</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="n">
+        <v>8</v>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>7-6-3</t>
+        </is>
+      </c>
+      <c r="C630" t="inlineStr">
+        <is>
+          <t>nsc_update</t>
+        </is>
+      </c>
+      <c r="D630" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="E630" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F630" t="n">
+        <v>6699</v>
+      </c>
+      <c r="G630" t="n">
+        <v>53139</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="n">
+        <v>9</v>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>13-7-2</t>
+        </is>
+      </c>
+      <c r="C631" t="inlineStr">
+        <is>
+          <t>nsc_update</t>
+        </is>
+      </c>
+      <c r="D631" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="E631" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F631" t="n">
+        <v>18473</v>
+      </c>
+      <c r="G631" t="n">
+        <v>255196</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="n">
+        <v>1</v>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>9-4-10</t>
+        </is>
+      </c>
+      <c r="C632" t="inlineStr">
+        <is>
+          <t>NSC_M</t>
+        </is>
+      </c>
+      <c r="D632" t="n">
+        <v>1</v>
+      </c>
+      <c r="E632" t="inlineStr">
+        <is>
+          <t>timeout</t>
+        </is>
+      </c>
+      <c r="F632" t="n">
+        <v>26064</v>
+      </c>
+      <c r="G632" t="n">
+        <v>184077</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="n">
+        <v>2</v>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>9-9-10</t>
+        </is>
+      </c>
+      <c r="C633" t="inlineStr">
+        <is>
+          <t>NSC_M</t>
+        </is>
+      </c>
+      <c r="D633" t="n">
+        <v>1</v>
+      </c>
+      <c r="E633" t="inlineStr">
+        <is>
+          <t>timeout</t>
+        </is>
+      </c>
+      <c r="F633" t="n">
+        <v>124254</v>
+      </c>
+      <c r="G633" t="n">
+        <v>954009</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="n">
+        <v>1</v>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>3-2-2</t>
+        </is>
+      </c>
+      <c r="C634" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D634" t="n">
+        <v>0</v>
+      </c>
+      <c r="E634" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F634" t="n">
+        <v>93</v>
+      </c>
+      <c r="G634" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="n">
+        <v>2</v>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>5-3-2</t>
+        </is>
+      </c>
+      <c r="C635" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D635" t="n">
+        <v>0</v>
+      </c>
+      <c r="E635" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F635" t="n">
+        <v>555</v>
+      </c>
+      <c r="G635" t="n">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="n">
+        <v>3</v>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>4-3-3</t>
+        </is>
+      </c>
+      <c r="C636" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D636" t="n">
+        <v>0</v>
+      </c>
+      <c r="E636" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F636" t="n">
+        <v>582</v>
+      </c>
+      <c r="G636" t="n">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="n">
+        <v>4</v>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>7-4-2</t>
+        </is>
+      </c>
+      <c r="C637" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D637" t="n">
+        <v>0</v>
+      </c>
+      <c r="E637" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F637" t="n">
+        <v>1862</v>
+      </c>
+      <c r="G637" t="n">
+        <v>11287</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="n">
+        <v>5</v>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>9-5-2</t>
+        </is>
+      </c>
+      <c r="C638" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D638" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E638" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F638" t="n">
+        <v>4680</v>
+      </c>
+      <c r="G638" t="n">
+        <v>35707</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="n">
+        <v>6</v>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>5-4-4</t>
+        </is>
+      </c>
+      <c r="C639" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D639" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E639" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F639" t="n">
+        <v>2210</v>
+      </c>
+      <c r="G639" t="n">
+        <v>13583</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="n">
+        <v>7</v>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>11-6-2</t>
+        </is>
+      </c>
+      <c r="C640" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D640" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E640" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F640" t="n">
+        <v>9867</v>
+      </c>
+      <c r="G640" t="n">
+        <v>90546</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="n">
+        <v>8</v>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>7-6-3</t>
+        </is>
+      </c>
+      <c r="C641" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D641" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="E641" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F641" t="n">
+        <v>6699</v>
+      </c>
+      <c r="G641" t="n">
+        <v>51417</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="n">
+        <v>9</v>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>13-7-2</t>
+        </is>
+      </c>
+      <c r="C642" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D642" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="E642" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F642" t="n">
+        <v>18473</v>
+      </c>
+      <c r="G642" t="n">
+        <v>197866</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="n">
+        <v>10</v>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>6-5-5</t>
+        </is>
+      </c>
+      <c r="C643" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D643" t="n">
+        <v>101.398</v>
+      </c>
+      <c r="E643" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F643" t="n">
+        <v>6315</v>
+      </c>
+      <c r="G643" t="n">
+        <v>47017</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="n">
+        <v>11</v>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>7-7-3</t>
+        </is>
+      </c>
+      <c r="C644" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D644" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="E644" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F644" t="n">
+        <v>8967</v>
+      </c>
+      <c r="G644" t="n">
+        <v>69902</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="n">
+        <v>12</v>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>5-8-3</t>
+        </is>
+      </c>
+      <c r="C645" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D645" t="n">
+        <v>0</v>
+      </c>
+      <c r="E645" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="F645" t="n">
+        <v>5780</v>
+      </c>
+      <c r="G645" t="n">
+        <v>36180</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="n">
+        <v>13</v>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>3-6-6</t>
+        </is>
+      </c>
+      <c r="C646" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D646" t="n">
+        <v>0</v>
+      </c>
+      <c r="E646" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="F646" t="n">
+        <v>2547</v>
+      </c>
+      <c r="G646" t="n">
+        <v>12882</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="n">
+        <v>14</v>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>15-8-2</t>
+        </is>
+      </c>
+      <c r="C647" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D647" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E647" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F647" t="n">
+        <v>31740</v>
+      </c>
+      <c r="G647" t="n">
+        <v>388417</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="n">
+        <v>15</v>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>6-7-4</t>
+        </is>
+      </c>
+      <c r="C648" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D648" t="n">
+        <v>0</v>
+      </c>
+      <c r="E648" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="F648" t="n">
+        <v>9240</v>
+      </c>
+      <c r="G648" t="n">
+        <v>68898</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="n">
+        <v>16</v>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>3-8-5</t>
+        </is>
+      </c>
+      <c r="C649" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D649" t="n">
+        <v>0</v>
+      </c>
+      <c r="E649" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="F649" t="n">
+        <v>3612</v>
+      </c>
+      <c r="G649" t="n">
+        <v>18432</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="n">
+        <v>17</v>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>5-7-5</t>
+        </is>
+      </c>
+      <c r="C650" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D650" t="n">
+        <v>0</v>
+      </c>
+      <c r="E650" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="F650" t="n">
+        <v>8190</v>
+      </c>
+      <c r="G650" t="n">
+        <v>55945</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="n">
+        <v>18</v>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>17-9-2</t>
+        </is>
+      </c>
+      <c r="C651" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D651" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="E651" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F651" t="n">
+        <v>51102</v>
+      </c>
+      <c r="G651" t="n">
+        <v>703077</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="n">
+        <v>19</v>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>4-7-6</t>
+        </is>
+      </c>
+      <c r="C652" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D652" t="n">
+        <v>0</v>
+      </c>
+      <c r="E652" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="F652" t="n">
+        <v>6300</v>
+      </c>
+      <c r="G652" t="n">
+        <v>38252</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="n">
+        <v>20</v>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>3-9-5</t>
+        </is>
+      </c>
+      <c r="C653" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D653" t="n">
+        <v>0</v>
+      </c>
+      <c r="E653" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="F653" t="n">
+        <v>4536</v>
+      </c>
+      <c r="G653" t="n">
+        <v>23397</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="n">
+        <v>21</v>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>10-9-3</t>
+        </is>
+      </c>
+      <c r="C654" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D654" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="E654" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F654" t="n">
+        <v>30015</v>
+      </c>
+      <c r="G654" t="n">
+        <v>312657</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="n">
+        <v>22</v>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>6-9-4</t>
+        </is>
+      </c>
+      <c r="C655" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D655" t="n">
+        <v>0</v>
+      </c>
+      <c r="E655" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="F655" t="n">
+        <v>14958</v>
+      </c>
+      <c r="G655" t="n">
+        <v>113922</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="n">
+        <v>23</v>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>8-10-3</t>
+        </is>
+      </c>
+      <c r="C656" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D656" t="n">
+        <v>0</v>
+      </c>
+      <c r="E656" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="F656" t="n">
+        <v>23320</v>
+      </c>
+      <c r="G656" t="n">
+        <v>206424</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="n">
+        <v>24</v>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>19-10-2</t>
+        </is>
+      </c>
+      <c r="C657" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D657" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="E657" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F657" t="n">
+        <v>78185</v>
+      </c>
+      <c r="G657" t="n">
+        <v>1194292</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="n">
+        <v>25</v>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>3-9-6</t>
+        </is>
+      </c>
+      <c r="C658" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D658" t="n">
+        <v>0</v>
+      </c>
+      <c r="E658" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="F658" t="n">
+        <v>5562</v>
+      </c>
+      <c r="G658" t="n">
+        <v>29334</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="n">
+        <v>26</v>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>5-10-4</t>
+        </is>
+      </c>
+      <c r="C659" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D659" t="n">
+        <v>0</v>
+      </c>
+      <c r="E659" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="F659" t="n">
+        <v>12575</v>
+      </c>
+      <c r="G659" t="n">
+        <v>85505</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="n">
+        <v>27</v>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>4-8-7</t>
+        </is>
+      </c>
+      <c r="C660" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D660" t="n">
+        <v>0</v>
+      </c>
+      <c r="E660" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="F660" t="n">
+        <v>9648</v>
+      </c>
+      <c r="G660" t="n">
+        <v>60176</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="n">
+        <v>28</v>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>5-10-5</t>
+        </is>
+      </c>
+      <c r="C661" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D661" t="n">
+        <v>0</v>
+      </c>
+      <c r="E661" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="F661" t="n">
+        <v>16275</v>
+      </c>
+      <c r="G661" t="n">
+        <v>114415</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="n">
+        <v>29</v>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>4-9-7</t>
+        </is>
+      </c>
+      <c r="C662" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D662" t="n">
+        <v>0</v>
+      </c>
+      <c r="E662" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="F662" t="n">
+        <v>12114</v>
+      </c>
+      <c r="G662" t="n">
+        <v>76278</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="n">
+        <v>30</v>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>5-3-1</t>
+        </is>
+      </c>
+      <c r="C663" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D663" t="n">
+        <v>0</v>
+      </c>
+      <c r="E663" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F663" t="n">
+        <v>75</v>
+      </c>
+      <c r="G663" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="n">
+        <v>31</v>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>5-3-3</t>
+        </is>
+      </c>
+      <c r="C664" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D664" t="n">
+        <v>0</v>
+      </c>
+      <c r="E664" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F664" t="n">
+        <v>930</v>
+      </c>
+      <c r="G664" t="n">
+        <v>5049</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="n">
+        <v>32</v>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>5-3-4</t>
+        </is>
+      </c>
+      <c r="C665" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D665" t="n">
+        <v>0</v>
+      </c>
+      <c r="E665" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F665" t="n">
+        <v>1305</v>
+      </c>
+      <c r="G665" t="n">
+        <v>7626</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="n">
+        <v>33</v>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>5-3-5</t>
+        </is>
+      </c>
+      <c r="C666" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D666" t="n">
+        <v>0</v>
+      </c>
+      <c r="E666" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F666" t="n">
+        <v>1680</v>
+      </c>
+      <c r="G666" t="n">
+        <v>10203</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="n">
+        <v>34</v>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>5-3-6</t>
+        </is>
+      </c>
+      <c r="C667" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D667" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E667" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F667" t="n">
+        <v>2055</v>
+      </c>
+      <c r="G667" t="n">
+        <v>12780</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="n">
+        <v>35</v>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>8-4-1</t>
+        </is>
+      </c>
+      <c r="C668" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D668" t="n">
+        <v>0</v>
+      </c>
+      <c r="E668" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F668" t="n">
+        <v>256</v>
+      </c>
+      <c r="G668" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="n">
+        <v>36</v>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>8-4-2</t>
+        </is>
+      </c>
+      <c r="C669" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D669" t="n">
+        <v>0</v>
+      </c>
+      <c r="E669" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F669" t="n">
+        <v>2448</v>
+      </c>
+      <c r="G669" t="n">
+        <v>16452</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="n">
+        <v>37</v>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>8-4-3</t>
+        </is>
+      </c>
+      <c r="C670" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D670" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E670" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F670" t="n">
+        <v>4144</v>
+      </c>
+      <c r="G670" t="n">
+        <v>33400</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="n">
+        <v>38</v>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>8-4-4</t>
+        </is>
+      </c>
+      <c r="C671" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D671" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E671" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F671" t="n">
+        <v>5840</v>
+      </c>
+      <c r="G671" t="n">
+        <v>50348</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="n">
+        <v>39</v>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>8-4-5</t>
+        </is>
+      </c>
+      <c r="C672" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D672" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E672" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F672" t="n">
+        <v>7536</v>
+      </c>
+      <c r="G672" t="n">
+        <v>67296</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="n">
+        <v>40</v>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>8-4-6</t>
+        </is>
+      </c>
+      <c r="C673" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D673" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="E673" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F673" t="n">
+        <v>9232</v>
+      </c>
+      <c r="G673" t="n">
+        <v>84244</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="n">
+        <v>41</v>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>5-3-7</t>
+        </is>
+      </c>
+      <c r="C674" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D674" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="E674" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F674" t="n">
+        <v>2430</v>
+      </c>
+      <c r="G674" t="n">
+        <v>15357</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="n">
+        <v>42</v>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>8-4-7</t>
+        </is>
+      </c>
+      <c r="C675" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D675" t="n">
+        <v>0.841</v>
+      </c>
+      <c r="E675" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F675" t="n">
+        <v>10928</v>
+      </c>
+      <c r="G675" t="n">
+        <v>101192</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="n">
+        <v>43</v>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>9-4-6</t>
+        </is>
+      </c>
+      <c r="C676" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D676" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="E676" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F676" t="n">
+        <v>11754</v>
+      </c>
+      <c r="G676" t="n">
+        <v>117385</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="n">
+        <v>44</v>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>9-4-7</t>
+        </is>
+      </c>
+      <c r="C677" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D677" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="E677" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F677" t="n">
+        <v>13914</v>
+      </c>
+      <c r="G677" t="n">
+        <v>140988</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="n">
+        <v>45</v>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>9-4-8</t>
+        </is>
+      </c>
+      <c r="C678" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D678" t="n">
+        <v>3.035</v>
+      </c>
+      <c r="E678" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F678" t="n">
+        <v>16074</v>
+      </c>
+      <c r="G678" t="n">
+        <v>164591</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="n">
+        <v>46</v>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>5-5-6</t>
+        </is>
+      </c>
+      <c r="C679" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D679" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E679" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F679" t="n">
+        <v>5300</v>
+      </c>
+      <c r="G679" t="n">
+        <v>37045</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="n">
+        <v>47</v>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>6-6-7</t>
+        </is>
+      </c>
+      <c r="C680" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D680" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="E680" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="F680" t="n">
+        <v>12942</v>
+      </c>
+      <c r="G680" t="n">
+        <v>105906</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="n">
+        <v>48</v>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>7-7-8</t>
+        </is>
+      </c>
+      <c r="C681" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D681" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="E681" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F681" t="n">
+        <v>27587</v>
+      </c>
+      <c r="G681" t="n">
+        <v>257341</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="n">
+        <v>49</v>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>8-8-9</t>
+        </is>
+      </c>
+      <c r="C682" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D682" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="E682" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F682" t="n">
+        <v>53216</v>
+      </c>
+      <c r="G682" t="n">
+        <v>577186</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="n">
+        <v>50</v>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>11-11-12</t>
+        </is>
+      </c>
+      <c r="C683" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D683" t="n">
+        <v>17.236</v>
+      </c>
+      <c r="E683" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F683" t="n">
+        <v>256157</v>
+      </c>
+      <c r="G683" t="n">
+        <v>3632251</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="n">
+        <v>51</v>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>13-13-14</t>
+        </is>
+      </c>
+      <c r="C684" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D684" t="n">
+        <v>600</v>
+      </c>
+      <c r="E684" t="inlineStr">
+        <is>
+          <t>timeout</t>
+        </is>
+      </c>
+      <c r="F684" t="n">
+        <v>585416</v>
+      </c>
+      <c r="G684" t="n">
+        <v>9562081</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="n">
+        <v>52</v>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>8-4-8</t>
+        </is>
+      </c>
+      <c r="C685" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D685" t="n">
+        <v>600</v>
+      </c>
+      <c r="E685" t="inlineStr">
+        <is>
+          <t>timeout</t>
+        </is>
+      </c>
+      <c r="F685" t="n">
+        <v>12624</v>
+      </c>
+      <c r="G685" t="n">
+        <v>118140</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="n">
+        <v>53</v>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>8-4-9</t>
+        </is>
+      </c>
+      <c r="C686" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D686" t="n">
+        <v>600</v>
+      </c>
+      <c r="E686" t="inlineStr">
+        <is>
+          <t>timeout</t>
+        </is>
+      </c>
+      <c r="F686" t="n">
+        <v>14320</v>
+      </c>
+      <c r="G686" t="n">
+        <v>135088</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="n">
+        <v>54</v>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>8-4-10</t>
+        </is>
+      </c>
+      <c r="C687" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D687" t="n">
+        <v>600</v>
+      </c>
+      <c r="E687" t="inlineStr">
+        <is>
+          <t>timeout</t>
+        </is>
+      </c>
+      <c r="F687" t="n">
+        <v>16016</v>
+      </c>
+      <c r="G687" t="n">
+        <v>152036</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="n">
+        <v>55</v>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>9-4-9</t>
+        </is>
+      </c>
+      <c r="C688" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D688" t="n">
+        <v>600</v>
+      </c>
+      <c r="E688" t="inlineStr">
+        <is>
+          <t>timeout</t>
+        </is>
+      </c>
+      <c r="F688" t="n">
+        <v>18234</v>
+      </c>
+      <c r="G688" t="n">
+        <v>188194</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="n">
+        <v>56</v>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>9-4-10</t>
+        </is>
+      </c>
+      <c r="C689" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D689" t="n">
+        <v>600</v>
+      </c>
+      <c r="E689" t="inlineStr">
+        <is>
+          <t>timeout</t>
+        </is>
+      </c>
+      <c r="F689" t="n">
+        <v>20394</v>
+      </c>
+      <c r="G689" t="n">
+        <v>211797</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="n">
+        <v>57</v>
+      </c>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t>9-9-10</t>
+        </is>
+      </c>
+      <c r="C690" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D690" t="n">
+        <v>600</v>
+      </c>
+      <c r="E690" t="inlineStr">
+        <is>
+          <t>timeout</t>
+        </is>
+      </c>
+      <c r="F690" t="n">
+        <v>95094</v>
+      </c>
+      <c r="G690" t="n">
+        <v>1096569</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="n">
+        <v>1</v>
+      </c>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>3-2-2</t>
+        </is>
+      </c>
+      <c r="C691" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D691" t="n">
+        <v>0</v>
+      </c>
+      <c r="E691" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F691" t="n">
+        <v>93</v>
+      </c>
+      <c r="G691" t="n">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="n">
+        <v>2</v>
+      </c>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>5-3-2</t>
+        </is>
+      </c>
+      <c r="C692" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D692" t="n">
+        <v>0</v>
+      </c>
+      <c r="E692" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F692" t="n">
+        <v>555</v>
+      </c>
+      <c r="G692" t="n">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="n">
+        <v>3</v>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>4-3-3</t>
+        </is>
+      </c>
+      <c r="C693" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D693" t="n">
+        <v>0</v>
+      </c>
+      <c r="E693" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F693" t="n">
+        <v>582</v>
+      </c>
+      <c r="G693" t="n">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="n">
+        <v>4</v>
+      </c>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>7-4-2</t>
+        </is>
+      </c>
+      <c r="C694" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D694" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E694" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F694" t="n">
+        <v>1862</v>
+      </c>
+      <c r="G694" t="n">
+        <v>8641</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="n">
+        <v>5</v>
+      </c>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t>9-5-2</t>
+        </is>
+      </c>
+      <c r="C695" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D695" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E695" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F695" t="n">
+        <v>4680</v>
+      </c>
+      <c r="G695" t="n">
+        <v>26797</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="n">
+        <v>6</v>
+      </c>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>5-4-4</t>
+        </is>
+      </c>
+      <c r="C696" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D696" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E696" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F696" t="n">
+        <v>2210</v>
+      </c>
+      <c r="G696" t="n">
+        <v>10733</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="n">
+        <v>7</v>
+      </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>11-6-2</t>
+        </is>
+      </c>
+      <c r="C697" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D697" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="E697" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F697" t="n">
+        <v>9867</v>
+      </c>
+      <c r="G697" t="n">
+        <v>66951</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="n">
+        <v>8</v>
+      </c>
+      <c r="B698" t="inlineStr">
+        <is>
+          <t>7-6-3</t>
+        </is>
+      </c>
+      <c r="C698" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D698" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E698" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F698" t="n">
+        <v>6699</v>
+      </c>
+      <c r="G698" t="n">
+        <v>39363</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="n">
+        <v>9</v>
+      </c>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t>13-7-2</t>
+        </is>
+      </c>
+      <c r="C699" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D699" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="E699" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F699" t="n">
+        <v>18473</v>
+      </c>
+      <c r="G699" t="n">
+        <v>144631</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="n">
+        <v>10</v>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>6-5-5</t>
+        </is>
+      </c>
+      <c r="C700" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D700" t="n">
+        <v>103.258</v>
+      </c>
+      <c r="E700" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F700" t="n">
+        <v>6315</v>
+      </c>
+      <c r="G700" t="n">
+        <v>36577</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="n">
+        <v>11</v>
+      </c>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t>7-7-3</t>
+        </is>
+      </c>
+      <c r="C701" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D701" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E701" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F701" t="n">
+        <v>8967</v>
+      </c>
+      <c r="G701" t="n">
+        <v>53438</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="n">
+        <v>12</v>
+      </c>
+      <c r="B702" t="inlineStr">
+        <is>
+          <t>5-8-3</t>
+        </is>
+      </c>
+      <c r="C702" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D702" t="n">
+        <v>0</v>
+      </c>
+      <c r="E702" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="F702" t="n">
+        <v>5780</v>
+      </c>
+      <c r="G702" t="n">
+        <v>28380</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="n">
+        <v>13</v>
+      </c>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t>3-6-6</t>
+        </is>
+      </c>
+      <c r="C703" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D703" t="n">
+        <v>0</v>
+      </c>
+      <c r="E703" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="F703" t="n">
+        <v>2547</v>
+      </c>
+      <c r="G703" t="n">
+        <v>10587</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="n">
+        <v>14</v>
+      </c>
+      <c r="B704" t="inlineStr">
+        <is>
+          <t>15-8-2</t>
+        </is>
+      </c>
+      <c r="C704" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D704" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="E704" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F704" t="n">
+        <v>31740</v>
+      </c>
+      <c r="G704" t="n">
+        <v>281317</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="n">
+        <v>15</v>
+      </c>
+      <c r="B705" t="inlineStr">
+        <is>
+          <t>6-7-4</t>
+        </is>
+      </c>
+      <c r="C705" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D705" t="n">
+        <v>0</v>
+      </c>
+      <c r="E705" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="F705" t="n">
+        <v>9240</v>
+      </c>
+      <c r="G705" t="n">
+        <v>53400</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="n">
+        <v>16</v>
+      </c>
+      <c r="B706" t="inlineStr">
+        <is>
+          <t>3-8-5</t>
+        </is>
+      </c>
+      <c r="C706" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D706" t="n">
+        <v>0</v>
+      </c>
+      <c r="E706" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="F706" t="n">
+        <v>3612</v>
+      </c>
+      <c r="G706" t="n">
+        <v>15120</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="n">
+        <v>17</v>
+      </c>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>5-7-5</t>
+        </is>
+      </c>
+      <c r="C707" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D707" t="n">
+        <v>0</v>
+      </c>
+      <c r="E707" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="F707" t="n">
+        <v>8190</v>
+      </c>
+      <c r="G707" t="n">
+        <v>44045</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="n">
+        <v>18</v>
+      </c>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t>17-9-2</t>
+        </is>
+      </c>
+      <c r="C708" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D708" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="E708" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F708" t="n">
+        <v>51102</v>
+      </c>
+      <c r="G708" t="n">
+        <v>505401</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="n">
+        <v>19</v>
+      </c>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>4-7-6</t>
+        </is>
+      </c>
+      <c r="C709" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D709" t="n">
+        <v>0</v>
+      </c>
+      <c r="E709" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="F709" t="n">
+        <v>6300</v>
+      </c>
+      <c r="G709" t="n">
+        <v>30692</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="n">
+        <v>20</v>
+      </c>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>3-9-5</t>
+        </is>
+      </c>
+      <c r="C710" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D710" t="n">
+        <v>0</v>
+      </c>
+      <c r="E710" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="F710" t="n">
+        <v>4536</v>
+      </c>
+      <c r="G710" t="n">
+        <v>19185</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="n">
+        <v>21</v>
+      </c>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>10-9-3</t>
+        </is>
+      </c>
+      <c r="C711" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D711" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E711" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F711" t="n">
+        <v>30015</v>
+      </c>
+      <c r="G711" t="n">
+        <v>232557</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="n">
+        <v>22</v>
+      </c>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>6-9-4</t>
+        </is>
+      </c>
+      <c r="C712" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D712" t="n">
+        <v>0</v>
+      </c>
+      <c r="E712" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="F712" t="n">
+        <v>14958</v>
+      </c>
+      <c r="G712" t="n">
+        <v>88164</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="n">
+        <v>23</v>
+      </c>
+      <c r="B713" t="inlineStr">
+        <is>
+          <t>8-10-3</t>
+        </is>
+      </c>
+      <c r="C713" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D713" t="n">
+        <v>0</v>
+      </c>
+      <c r="E713" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="F713" t="n">
+        <v>23320</v>
+      </c>
+      <c r="G713" t="n">
+        <v>155864</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="n">
+        <v>24</v>
+      </c>
+      <c r="B714" t="inlineStr">
+        <is>
+          <t>19-10-2</t>
+        </is>
+      </c>
+      <c r="C714" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D714" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="E714" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F714" t="n">
+        <v>78185</v>
+      </c>
+      <c r="G714" t="n">
+        <v>853147</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="n">
+        <v>25</v>
+      </c>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>3-9-6</t>
+        </is>
+      </c>
+      <c r="C715" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D715" t="n">
+        <v>0</v>
+      </c>
+      <c r="E715" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="F715" t="n">
+        <v>5562</v>
+      </c>
+      <c r="G715" t="n">
+        <v>24069</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="n">
+        <v>26</v>
+      </c>
+      <c r="B716" t="inlineStr">
+        <is>
+          <t>5-10-4</t>
+        </is>
+      </c>
+      <c r="C716" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D716" t="n">
+        <v>0</v>
+      </c>
+      <c r="E716" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="F716" t="n">
+        <v>12575</v>
+      </c>
+      <c r="G716" t="n">
+        <v>67130</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="n">
+        <v>27</v>
+      </c>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>4-8-7</t>
+        </is>
+      </c>
+      <c r="C717" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D717" t="n">
+        <v>0</v>
+      </c>
+      <c r="E717" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="F717" t="n">
+        <v>9648</v>
+      </c>
+      <c r="G717" t="n">
+        <v>48272</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="n">
+        <v>28</v>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>5-10-5</t>
+        </is>
+      </c>
+      <c r="C718" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D718" t="n">
+        <v>0</v>
+      </c>
+      <c r="E718" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="F718" t="n">
+        <v>16275</v>
+      </c>
+      <c r="G718" t="n">
+        <v>89915</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="n">
+        <v>29</v>
+      </c>
+      <c r="B719" t="inlineStr">
+        <is>
+          <t>4-9-7</t>
+        </is>
+      </c>
+      <c r="C719" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D719" t="n">
+        <v>0</v>
+      </c>
+      <c r="E719" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="F719" t="n">
+        <v>12114</v>
+      </c>
+      <c r="G719" t="n">
+        <v>61158</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="n">
+        <v>30</v>
+      </c>
+      <c r="B720" t="inlineStr">
+        <is>
+          <t>5-3-1</t>
+        </is>
+      </c>
+      <c r="C720" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D720" t="n">
+        <v>0</v>
+      </c>
+      <c r="E720" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F720" t="n">
+        <v>75</v>
+      </c>
+      <c r="G720" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="n">
+        <v>31</v>
+      </c>
+      <c r="B721" t="inlineStr">
+        <is>
+          <t>5-3-3</t>
+        </is>
+      </c>
+      <c r="C721" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D721" t="n">
+        <v>0</v>
+      </c>
+      <c r="E721" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F721" t="n">
+        <v>930</v>
+      </c>
+      <c r="G721" t="n">
+        <v>3999</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="n">
+        <v>32</v>
+      </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>5-3-4</t>
+        </is>
+      </c>
+      <c r="C722" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D722" t="n">
+        <v>0</v>
+      </c>
+      <c r="E722" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F722" t="n">
+        <v>1305</v>
+      </c>
+      <c r="G722" t="n">
+        <v>6051</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="n">
+        <v>33</v>
+      </c>
+      <c r="B723" t="inlineStr">
+        <is>
+          <t>5-3-5</t>
+        </is>
+      </c>
+      <c r="C723" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D723" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E723" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F723" t="n">
+        <v>1680</v>
+      </c>
+      <c r="G723" t="n">
+        <v>8103</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="n">
+        <v>34</v>
+      </c>
+      <c r="B724" t="inlineStr">
+        <is>
+          <t>5-3-6</t>
+        </is>
+      </c>
+      <c r="C724" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D724" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="E724" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F724" t="n">
+        <v>2055</v>
+      </c>
+      <c r="G724" t="n">
+        <v>10155</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="n">
+        <v>35</v>
+      </c>
+      <c r="B725" t="inlineStr">
+        <is>
+          <t>8-4-1</t>
+        </is>
+      </c>
+      <c r="C725" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D725" t="n">
+        <v>0</v>
+      </c>
+      <c r="E725" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F725" t="n">
+        <v>256</v>
+      </c>
+      <c r="G725" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="n">
+        <v>36</v>
+      </c>
+      <c r="B726" t="inlineStr">
+        <is>
+          <t>8-4-2</t>
+        </is>
+      </c>
+      <c r="C726" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D726" t="n">
+        <v>0</v>
+      </c>
+      <c r="E726" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F726" t="n">
+        <v>2448</v>
+      </c>
+      <c r="G726" t="n">
+        <v>12484</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="n">
+        <v>37</v>
+      </c>
+      <c r="B727" t="inlineStr">
+        <is>
+          <t>8-4-3</t>
+        </is>
+      </c>
+      <c r="C727" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D727" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E727" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F727" t="n">
+        <v>4144</v>
+      </c>
+      <c r="G727" t="n">
+        <v>25464</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="n">
+        <v>38</v>
+      </c>
+      <c r="B728" t="inlineStr">
+        <is>
+          <t>8-4-4</t>
+        </is>
+      </c>
+      <c r="C728" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D728" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E728" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F728" t="n">
+        <v>5840</v>
+      </c>
+      <c r="G728" t="n">
+        <v>38444</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="n">
+        <v>39</v>
+      </c>
+      <c r="B729" t="inlineStr">
+        <is>
+          <t>8-4-5</t>
+        </is>
+      </c>
+      <c r="C729" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D729" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E729" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F729" t="n">
+        <v>7536</v>
+      </c>
+      <c r="G729" t="n">
+        <v>51424</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="n">
+        <v>40</v>
+      </c>
+      <c r="B730" t="inlineStr">
+        <is>
+          <t>8-4-6</t>
+        </is>
+      </c>
+      <c r="C730" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D730" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="E730" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F730" t="n">
+        <v>9232</v>
+      </c>
+      <c r="G730" t="n">
+        <v>64404</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="n">
+        <v>41</v>
+      </c>
+      <c r="B731" t="inlineStr">
+        <is>
+          <t>5-3-7</t>
+        </is>
+      </c>
+      <c r="C731" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D731" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="E731" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F731" t="n">
+        <v>2430</v>
+      </c>
+      <c r="G731" t="n">
+        <v>12207</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="n">
+        <v>42</v>
+      </c>
+      <c r="B732" t="inlineStr">
+        <is>
+          <t>8-4-7</t>
+        </is>
+      </c>
+      <c r="C732" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D732" t="n">
+        <v>43.9</v>
+      </c>
+      <c r="E732" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F732" t="n">
+        <v>10928</v>
+      </c>
+      <c r="G732" t="n">
+        <v>77384</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="n">
+        <v>43</v>
+      </c>
+      <c r="B733" t="inlineStr">
+        <is>
+          <t>9-4-6</t>
+        </is>
+      </c>
+      <c r="C733" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D733" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E733" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F733" t="n">
+        <v>11754</v>
+      </c>
+      <c r="G733" t="n">
+        <v>89035</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="n">
+        <v>44</v>
+      </c>
+      <c r="B734" t="inlineStr">
+        <is>
+          <t>9-4-7</t>
+        </is>
+      </c>
+      <c r="C734" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D734" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="E734" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F734" t="n">
+        <v>13914</v>
+      </c>
+      <c r="G734" t="n">
+        <v>106968</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="n">
+        <v>45</v>
+      </c>
+      <c r="B735" t="inlineStr">
+        <is>
+          <t>9-4-8</t>
+        </is>
+      </c>
+      <c r="C735" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D735" t="n">
+        <v>600</v>
+      </c>
+      <c r="E735" t="inlineStr">
+        <is>
+          <t>timeout</t>
+        </is>
+      </c>
+      <c r="F735" t="n">
+        <v>16074</v>
+      </c>
+      <c r="G735" t="n">
+        <v>124901</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="n">
+        <v>46</v>
+      </c>
+      <c r="B736" t="inlineStr">
+        <is>
+          <t>5-5-6</t>
+        </is>
+      </c>
+      <c r="C736" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D736" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E736" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F736" t="n">
+        <v>5300</v>
+      </c>
+      <c r="G736" t="n">
+        <v>29545</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="n">
+        <v>47</v>
+      </c>
+      <c r="B737" t="inlineStr">
+        <is>
+          <t>6-6-7</t>
+        </is>
+      </c>
+      <c r="C737" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D737" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="E737" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="F737" t="n">
+        <v>12942</v>
+      </c>
+      <c r="G737" t="n">
+        <v>83226</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="n">
+        <v>48</v>
+      </c>
+      <c r="B738" t="inlineStr">
+        <is>
+          <t>7-7-8</t>
+        </is>
+      </c>
+      <c r="C738" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D738" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="E738" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F738" t="n">
+        <v>27587</v>
+      </c>
+      <c r="G738" t="n">
+        <v>199717</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="n">
+        <v>49</v>
+      </c>
+      <c r="B739" t="inlineStr">
+        <is>
+          <t>8-8-9</t>
+        </is>
+      </c>
+      <c r="C739" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D739" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="E739" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F739" t="n">
+        <v>53216</v>
+      </c>
+      <c r="G739" t="n">
+        <v>448162</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="n">
+        <v>50</v>
+      </c>
+      <c r="B740" t="inlineStr">
+        <is>
+          <t>11-11-12</t>
+        </is>
+      </c>
+      <c r="C740" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D740" t="n">
+        <v>58.634</v>
+      </c>
+      <c r="E740" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F740" t="n">
+        <v>256157</v>
+      </c>
+      <c r="G740" t="n">
+        <v>2753791</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="n">
+        <v>51</v>
+      </c>
+      <c r="B741" t="inlineStr">
+        <is>
+          <t>13-13-14</t>
+        </is>
+      </c>
+      <c r="C741" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D741" t="n">
+        <v>600</v>
+      </c>
+      <c r="E741" t="inlineStr">
+        <is>
+          <t>timeout</t>
+        </is>
+      </c>
+      <c r="F741" t="n">
+        <v>585416</v>
+      </c>
+      <c r="G741" t="n">
+        <v>7162957</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="n">
+        <v>52</v>
+      </c>
+      <c r="B742" t="inlineStr">
+        <is>
+          <t>8-4-8</t>
+        </is>
+      </c>
+      <c r="C742" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D742" t="n">
+        <v>600</v>
+      </c>
+      <c r="E742" t="inlineStr">
+        <is>
+          <t>timeout</t>
+        </is>
+      </c>
+      <c r="F742" t="n">
+        <v>12624</v>
+      </c>
+      <c r="G742" t="n">
+        <v>90364</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="n">
+        <v>53</v>
+      </c>
+      <c r="B743" t="inlineStr">
+        <is>
+          <t>8-4-9</t>
+        </is>
+      </c>
+      <c r="C743" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D743" t="n">
+        <v>600</v>
+      </c>
+      <c r="E743" t="inlineStr">
+        <is>
+          <t>timeout</t>
+        </is>
+      </c>
+      <c r="F743" t="n">
+        <v>14320</v>
+      </c>
+      <c r="G743" t="n">
+        <v>103344</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="n">
+        <v>54</v>
+      </c>
+      <c r="B744" t="inlineStr">
+        <is>
+          <t>8-4-10</t>
+        </is>
+      </c>
+      <c r="C744" t="inlineStr">
+        <is>
+          <t>nsc_matrix</t>
+        </is>
+      </c>
+      <c r="D744" t="n">
+        <v>600</v>
+      </c>
+      <c r="E744" t="inlineStr">
+        <is>
+          <t>timeout</t>
+        </is>
+      </c>
+      <c r="F744" t="n">
+        <v>16016</v>
+      </c>
+      <c r="G744" t="n">
+        <v>116324</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
